--- a/Code/Results/Cases/Case_9_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_14/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.410791784157368</v>
+        <v>3.415215579431219</v>
       </c>
       <c r="C2">
-        <v>0.6149642202663586</v>
+        <v>0.6232644129015341</v>
       </c>
       <c r="D2">
-        <v>0.07394391953120305</v>
+        <v>0.0761173944496818</v>
       </c>
       <c r="E2">
-        <v>0.07352827531388684</v>
+        <v>0.07021042949001632</v>
       </c>
       <c r="F2">
-        <v>0.3605736935401325</v>
+        <v>0.3451112769199085</v>
       </c>
       <c r="G2">
-        <v>0.2552873866800809</v>
+        <v>0.2228392709521003</v>
       </c>
       <c r="H2">
-        <v>4.425914079675408E-09</v>
+        <v>9.130414994396041E-06</v>
       </c>
       <c r="I2">
-        <v>0.0004451865103245467</v>
+        <v>0.0005517738035667463</v>
       </c>
       <c r="J2">
-        <v>0.2351336877659378</v>
+        <v>0.2659953022218673</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.120476583942283</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.04814386905114088</v>
       </c>
       <c r="N2">
-        <v>0.3482144190967347</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3546403711995367</v>
       </c>
       <c r="Q2">
-        <v>0.9827506317379999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.9329134093574822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.972984451403988</v>
+        <v>2.977922791191304</v>
       </c>
       <c r="C3">
-        <v>0.5667786615414343</v>
+        <v>0.5653551216728658</v>
       </c>
       <c r="D3">
-        <v>0.06560305768842767</v>
+        <v>0.06697947667626636</v>
       </c>
       <c r="E3">
-        <v>0.07125222906862838</v>
+        <v>0.06845101198158332</v>
       </c>
       <c r="F3">
-        <v>0.3405468422447555</v>
+        <v>0.3279944900846061</v>
       </c>
       <c r="G3">
-        <v>0.2439855821555312</v>
+        <v>0.2142012780692042</v>
       </c>
       <c r="H3">
-        <v>0.0001652322722072164</v>
+        <v>7.84641788376117E-05</v>
       </c>
       <c r="I3">
-        <v>0.0006296172319184556</v>
+        <v>0.0005671724703701919</v>
       </c>
       <c r="J3">
-        <v>0.2347523856021354</v>
+        <v>0.2650066349414644</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1265746236937098</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.05102292066786607</v>
       </c>
       <c r="N3">
-        <v>0.3061796707315807</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3118699879920968</v>
       </c>
       <c r="Q3">
-        <v>0.9576820873668339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.9157060331005056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.703676158426106</v>
+        <v>2.708815174560016</v>
       </c>
       <c r="C4">
-        <v>0.5374209946959638</v>
+        <v>0.5302177936102623</v>
       </c>
       <c r="D4">
-        <v>0.06049325150119955</v>
+        <v>0.06139543777734957</v>
       </c>
       <c r="E4">
-        <v>0.06982207227005244</v>
+        <v>0.06733590951110635</v>
       </c>
       <c r="F4">
-        <v>0.3287428539506649</v>
+        <v>0.3178568206273056</v>
       </c>
       <c r="G4">
-        <v>0.2374670566472759</v>
+        <v>0.2092992793535302</v>
       </c>
       <c r="H4">
-        <v>0.0004402892732131569</v>
+        <v>0.0002693663165870275</v>
       </c>
       <c r="I4">
-        <v>0.0009539299567049575</v>
+        <v>0.0007531777527063355</v>
       </c>
       <c r="J4">
-        <v>0.2348130384754086</v>
+        <v>0.2645120568525527</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1305447695731274</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05331298877765489</v>
       </c>
       <c r="N4">
-        <v>0.2804106850936137</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2856630771736945</v>
       </c>
       <c r="Q4">
-        <v>0.9437909972596685</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.906266821105163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.593777083026396</v>
+        <v>2.598971078417321</v>
       </c>
       <c r="C5">
-        <v>0.5263859116470258</v>
+        <v>0.5168692222394498</v>
       </c>
       <c r="D5">
-        <v>0.05848882958860457</v>
+        <v>0.05919944196298843</v>
       </c>
       <c r="E5">
-        <v>0.0691719583140511</v>
+        <v>0.06681793138503522</v>
       </c>
       <c r="F5">
-        <v>0.3235942715078934</v>
+        <v>0.3133838758140186</v>
       </c>
       <c r="G5">
-        <v>0.234471119953092</v>
+        <v>0.2069898487122472</v>
       </c>
       <c r="H5">
-        <v>0.0005945337454350552</v>
+        <v>0.0003831273416551317</v>
       </c>
       <c r="I5">
-        <v>0.001205889589348086</v>
+        <v>0.0009529502834411119</v>
       </c>
       <c r="J5">
-        <v>0.234676453640958</v>
+        <v>0.2641107156828113</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1320623909410088</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0543287106964403</v>
       </c>
       <c r="N5">
-        <v>0.270038288784292</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2751111496393008</v>
       </c>
       <c r="Q5">
-        <v>0.9370703992928924</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.9013576833674222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.575499926290263</v>
+        <v>2.580700280595465</v>
       </c>
       <c r="C6">
-        <v>0.5256314590288582</v>
+        <v>0.5157262762171513</v>
       </c>
       <c r="D6">
-        <v>0.05824873261634878</v>
+        <v>0.05892516982564899</v>
       </c>
       <c r="E6">
-        <v>0.06899160883066635</v>
+        <v>0.066664715201882</v>
       </c>
       <c r="F6">
-        <v>0.3221897366562843</v>
+        <v>0.3121216765667256</v>
       </c>
       <c r="G6">
-        <v>0.2334430623628592</v>
+        <v>0.2061161201810151</v>
       </c>
       <c r="H6">
-        <v>0.0006236185553522011</v>
+        <v>0.0004049216158776847</v>
       </c>
       <c r="I6">
-        <v>0.001343096204039718</v>
+        <v>0.001097625092540966</v>
       </c>
       <c r="J6">
-        <v>0.2343737308060625</v>
+        <v>0.2637685108996592</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1321275096473364</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.05444754362505</v>
       </c>
       <c r="N6">
-        <v>0.2684650569589593</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2735023139079971</v>
       </c>
       <c r="Q6">
-        <v>0.9342429784068145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.8989346486657155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.702138886393755</v>
+        <v>2.707249089566972</v>
       </c>
       <c r="C7">
-        <v>0.5402191227378808</v>
+        <v>0.5327367104441976</v>
       </c>
       <c r="D7">
-        <v>0.06071995697335808</v>
+        <v>0.06175611775817202</v>
       </c>
       <c r="E7">
-        <v>0.06961744426971084</v>
+        <v>0.06713875815823034</v>
       </c>
       <c r="F7">
-        <v>0.327153032697467</v>
+        <v>0.3155749344398728</v>
       </c>
       <c r="G7">
-        <v>0.2359611771753123</v>
+        <v>0.2100418644908899</v>
       </c>
       <c r="H7">
-        <v>0.0004444967902197394</v>
+        <v>0.0002734910925574763</v>
       </c>
       <c r="I7">
-        <v>0.001193784306785517</v>
+        <v>0.00103653074731902</v>
       </c>
       <c r="J7">
-        <v>0.2340358304583887</v>
+        <v>0.2602940250487649</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1298940310949614</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.05309719500294685</v>
       </c>
       <c r="N7">
-        <v>0.2806781317487292</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2858808420624825</v>
       </c>
       <c r="Q7">
-        <v>0.9389697520548452</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.8993605543069094</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.259848686566784</v>
+        <v>3.264378711360848</v>
       </c>
       <c r="C8">
-        <v>0.6022605963691205</v>
+        <v>0.6064080636941753</v>
       </c>
       <c r="D8">
-        <v>0.07140494606599646</v>
+        <v>0.07377753356555417</v>
       </c>
       <c r="E8">
-        <v>0.07249335937207135</v>
+        <v>0.06935001308835353</v>
       </c>
       <c r="F8">
-        <v>0.3515531034496675</v>
+        <v>0.3346336984372087</v>
       </c>
       <c r="G8">
-        <v>0.249364564370012</v>
+        <v>0.2251181676327434</v>
       </c>
       <c r="H8">
-        <v>2.01158827621839E-05</v>
+        <v>1.382696592777677E-06</v>
       </c>
       <c r="I8">
-        <v>0.000745225142672723</v>
+        <v>0.0008554159083828949</v>
       </c>
       <c r="J8">
-        <v>0.2339210598404904</v>
+        <v>0.2534480632641518</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1214788069285149</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.04849527257850106</v>
       </c>
       <c r="N8">
-        <v>0.3342548126455114</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.340300431769549</v>
       </c>
       <c r="Q8">
-        <v>0.9675497453904995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.9129999728056362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.35044641650461</v>
+        <v>4.352862890637766</v>
       </c>
       <c r="C9">
-        <v>0.7205739440468903</v>
+        <v>0.7498668196254812</v>
       </c>
       <c r="D9">
-        <v>0.09201638572319837</v>
+        <v>0.09661782509079586</v>
       </c>
       <c r="E9">
-        <v>0.07823007146441796</v>
+        <v>0.07376620749561802</v>
       </c>
       <c r="F9">
-        <v>0.4063580674744287</v>
+        <v>0.3806512350847129</v>
       </c>
       <c r="G9">
-        <v>0.2819031964727472</v>
+        <v>0.2527862354770818</v>
       </c>
       <c r="H9">
-        <v>0.0006759196751411345</v>
+        <v>0.0007352328054888169</v>
       </c>
       <c r="I9">
-        <v>0.001321594278105742</v>
+        <v>0.001581343846794425</v>
       </c>
       <c r="J9">
-        <v>0.2375393321366914</v>
+        <v>0.2544395202847767</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1081476771504022</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.0443136571849081</v>
       </c>
       <c r="N9">
-        <v>0.4390451137228837</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.4469737239438132</v>
       </c>
       <c r="Q9">
-        <v>1.044837265792466</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.966004081575079</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.150451920024238</v>
+        <v>5.150282986874572</v>
       </c>
       <c r="C10">
-        <v>0.8222899230871974</v>
+        <v>0.868518160203962</v>
       </c>
       <c r="D10">
-        <v>0.1087076212883318</v>
+        <v>0.1158029591918819</v>
       </c>
       <c r="E10">
-        <v>0.0793116060139134</v>
+        <v>0.07417193318568316</v>
       </c>
       <c r="F10">
-        <v>0.4416663494706867</v>
+        <v>0.4054998338585349</v>
       </c>
       <c r="G10">
-        <v>0.300774018871131</v>
+        <v>0.2819582155590652</v>
       </c>
       <c r="H10">
-        <v>0.002295043688021803</v>
+        <v>0.002246934286381119</v>
       </c>
       <c r="I10">
-        <v>0.0031250549017523</v>
+        <v>0.003287335752782283</v>
       </c>
       <c r="J10">
-        <v>0.2379290223256163</v>
+        <v>0.2345773085905734</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.09782571537130558</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.04194489915842681</v>
       </c>
       <c r="N10">
-        <v>0.4972577371698321</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.5059947411035637</v>
       </c>
       <c r="Q10">
-        <v>1.086156045445591</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.9778690010313795</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.510592783873733</v>
+        <v>5.509074028951034</v>
       </c>
       <c r="C11">
-        <v>0.9850840156459242</v>
+        <v>1.024721983926071</v>
       </c>
       <c r="D11">
-        <v>0.1288186827949005</v>
+        <v>0.1377322592759356</v>
       </c>
       <c r="E11">
-        <v>0.06302324720030716</v>
+        <v>0.05992615235203758</v>
       </c>
       <c r="F11">
-        <v>0.3945724164370077</v>
+        <v>0.3564263801958916</v>
       </c>
       <c r="G11">
-        <v>0.2500568734787976</v>
+        <v>0.2644845773153222</v>
       </c>
       <c r="H11">
-        <v>0.02086086491151207</v>
+        <v>0.02074706922178393</v>
       </c>
       <c r="I11">
-        <v>0.004299292367773155</v>
+        <v>0.004455673942930893</v>
       </c>
       <c r="J11">
-        <v>0.2074713475815244</v>
+        <v>0.1804095470485265</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.08606475478263587</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.03060374131001176</v>
       </c>
       <c r="N11">
-        <v>0.3683947879997476</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.3739683596619443</v>
       </c>
       <c r="Q11">
-        <v>0.9150777751887347</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.8062111210888361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.645761237401416</v>
+        <v>5.643794671851538</v>
       </c>
       <c r="C12">
-        <v>1.107507415321436</v>
+        <v>1.135830167454969</v>
       </c>
       <c r="D12">
-        <v>0.1427693043836769</v>
+        <v>0.1520839444925741</v>
       </c>
       <c r="E12">
-        <v>0.06085336809441477</v>
+        <v>0.05891310078292111</v>
       </c>
       <c r="F12">
-        <v>0.3513004803087512</v>
+        <v>0.3163341150178809</v>
       </c>
       <c r="G12">
-        <v>0.2086205377944239</v>
+        <v>0.2381541491495227</v>
       </c>
       <c r="H12">
-        <v>0.05936778981335777</v>
+        <v>0.05923854398196937</v>
       </c>
       <c r="I12">
-        <v>0.004474581742476502</v>
+        <v>0.004590668036335011</v>
       </c>
       <c r="J12">
-        <v>0.1841846407440428</v>
+        <v>0.1558059084877961</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08127697558883173</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.02390504229117241</v>
       </c>
       <c r="N12">
-        <v>0.2643457286786628</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2676990314687799</v>
       </c>
       <c r="Q12">
-        <v>0.7785556936370313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.6830240753760393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.61413407556563</v>
+        <v>5.612520955154878</v>
       </c>
       <c r="C13">
-        <v>1.209180520265335</v>
+        <v>1.222748771024328</v>
       </c>
       <c r="D13">
-        <v>0.1530399743697473</v>
+        <v>0.1610481650928506</v>
       </c>
       <c r="E13">
-        <v>0.06883861046130235</v>
+        <v>0.0674563180732175</v>
       </c>
       <c r="F13">
-        <v>0.3059292753092748</v>
+        <v>0.2795239783886956</v>
       </c>
       <c r="G13">
-        <v>0.1694668882855197</v>
+        <v>0.1974708148733555</v>
       </c>
       <c r="H13">
-        <v>0.114784952964115</v>
+        <v>0.1146802555498709</v>
       </c>
       <c r="I13">
-        <v>0.004180252992161293</v>
+        <v>0.004321721648273602</v>
       </c>
       <c r="J13">
-        <v>0.1637347602071131</v>
+        <v>0.1479142492982675</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.07983309346335177</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.0201035068440194</v>
       </c>
       <c r="N13">
-        <v>0.1745023406188579</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1762458027602207</v>
       </c>
       <c r="Q13">
-        <v>0.6527136699332914</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.5842325373496635</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.516382336411311</v>
+        <v>5.515352560761698</v>
       </c>
       <c r="C14">
-        <v>1.272709529729923</v>
+        <v>1.274111085998186</v>
       </c>
       <c r="D14">
-        <v>0.1586849581209719</v>
+        <v>0.1649436148602348</v>
       </c>
       <c r="E14">
-        <v>0.08041150559204446</v>
+        <v>0.07904749798079891</v>
       </c>
       <c r="F14">
-        <v>0.2733315462556902</v>
+        <v>0.2547774403391756</v>
       </c>
       <c r="G14">
-        <v>0.1434002141214705</v>
+        <v>0.1643881540149437</v>
       </c>
       <c r="H14">
-        <v>0.1638465112192051</v>
+        <v>0.1637721411640456</v>
       </c>
       <c r="I14">
-        <v>0.003855531837879234</v>
+        <v>0.004055173824067282</v>
       </c>
       <c r="J14">
-        <v>0.1508047536641683</v>
+        <v>0.147633116702039</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08003191938372289</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.01897619335984535</v>
       </c>
       <c r="N14">
-        <v>0.1210288118738347</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1219714087896691</v>
       </c>
       <c r="Q14">
-        <v>0.5703207132758479</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.5246229205732931</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.456935276483136</v>
+        <v>5.456210436678248</v>
       </c>
       <c r="C15">
-        <v>1.283715407216789</v>
+        <v>1.281719225076586</v>
       </c>
       <c r="D15">
-        <v>0.1592603589529347</v>
+        <v>0.1647546949537571</v>
       </c>
       <c r="E15">
-        <v>0.08390504861278636</v>
+        <v>0.08250225735634586</v>
       </c>
       <c r="F15">
-        <v>0.2643286589688074</v>
+        <v>0.2485813634272205</v>
       </c>
       <c r="G15">
-        <v>0.136793395083167</v>
+        <v>0.1538430020265196</v>
       </c>
       <c r="H15">
-        <v>0.1762246378704475</v>
+        <v>0.1761647503898587</v>
       </c>
       <c r="I15">
-        <v>0.003787434284835633</v>
+        <v>0.004035628294382754</v>
       </c>
       <c r="J15">
-        <v>0.1478952298022378</v>
+        <v>0.1496600623918063</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08032761392912358</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.01909078415014431</v>
       </c>
       <c r="N15">
-        <v>0.1089445808056269</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1097496406028995</v>
       </c>
       <c r="Q15">
-        <v>0.5501858992847701</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.5121172728143932</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.117783994765375</v>
+        <v>5.118546942848468</v>
       </c>
       <c r="C16">
-        <v>1.217072429435575</v>
+        <v>1.213106966387784</v>
       </c>
       <c r="D16">
-        <v>0.1497461246332676</v>
+        <v>0.1526244671520374</v>
       </c>
       <c r="E16">
-        <v>0.08139382261692241</v>
+        <v>0.08007911743808016</v>
       </c>
       <c r="F16">
-        <v>0.2575157071708603</v>
+        <v>0.2495539306108157</v>
       </c>
       <c r="G16">
-        <v>0.1357868015886936</v>
+        <v>0.1346236945110704</v>
       </c>
       <c r="H16">
-        <v>0.1628093169493638</v>
+        <v>0.1628095146431718</v>
       </c>
       <c r="I16">
-        <v>0.003070387976844557</v>
+        <v>0.003441535699590048</v>
       </c>
       <c r="J16">
-        <v>0.1512523703285709</v>
+        <v>0.1716705597408215</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08214648433801663</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02180671268394374</v>
       </c>
       <c r="N16">
-        <v>0.1051225714272874</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.106166298363604</v>
       </c>
       <c r="Q16">
-        <v>0.55487008302579</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.5360630012379346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.91027827166613</v>
+        <v>4.911781454905679</v>
       </c>
       <c r="C17">
-        <v>1.132226523910703</v>
+        <v>1.132975522629692</v>
       </c>
       <c r="D17">
-        <v>0.1394702326356594</v>
+        <v>0.1416829754819986</v>
       </c>
       <c r="E17">
-        <v>0.07237244585622804</v>
+        <v>0.07117668217812145</v>
       </c>
       <c r="F17">
-        <v>0.2694487972632515</v>
+        <v>0.2628208405166674</v>
       </c>
       <c r="G17">
-        <v>0.1485754503356773</v>
+        <v>0.1385064178187818</v>
       </c>
       <c r="H17">
-        <v>0.1246825999452597</v>
+        <v>0.1247038661263247</v>
       </c>
       <c r="I17">
-        <v>0.002751585787163613</v>
+        <v>0.003175663967238229</v>
       </c>
       <c r="J17">
-        <v>0.1606102682506148</v>
+        <v>0.1892675478200232</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.08408022814616933</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02427037719653602</v>
       </c>
       <c r="N17">
-        <v>0.1285415311990263</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1301293921228464</v>
       </c>
       <c r="Q17">
-        <v>0.6014453842535517</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.5850661062847706</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.791918506762272</v>
+        <v>4.793727688429442</v>
       </c>
       <c r="C18">
-        <v>1.023440110374452</v>
+        <v>1.034644463106446</v>
       </c>
       <c r="D18">
-        <v>0.1274667381505736</v>
+        <v>0.1301078265394153</v>
       </c>
       <c r="E18">
-        <v>0.06216894054228383</v>
+        <v>0.06084808832512589</v>
       </c>
       <c r="F18">
-        <v>0.3007822135983034</v>
+        <v>0.2912682445105119</v>
       </c>
       <c r="G18">
-        <v>0.1771795709944755</v>
+        <v>0.1601204903082234</v>
       </c>
       <c r="H18">
-        <v>0.07179193657977834</v>
+        <v>0.07182130891792582</v>
       </c>
       <c r="I18">
-        <v>0.002407317024117894</v>
+        <v>0.002801125600671917</v>
       </c>
       <c r="J18">
-        <v>0.1773714420968489</v>
+        <v>0.208291362195375</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.08731795357358707</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.02755229107329127</v>
       </c>
       <c r="N18">
-        <v>0.1869003606197026</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1896296864970708</v>
       </c>
       <c r="Q18">
-        <v>0.6971083309254311</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.6714842550721585</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.75343765151365</v>
+        <v>4.755199773855338</v>
       </c>
       <c r="C19">
-        <v>0.9174815047475704</v>
+        <v>0.9412647565195016</v>
       </c>
       <c r="D19">
-        <v>0.116030929431858</v>
+        <v>0.1196328591176865</v>
       </c>
       <c r="E19">
-        <v>0.05998553373002929</v>
+        <v>0.0578582968927534</v>
       </c>
       <c r="F19">
-        <v>0.344837433563761</v>
+        <v>0.3294536852699252</v>
       </c>
       <c r="G19">
-        <v>0.2171414082130596</v>
+        <v>0.1931967432575519</v>
       </c>
       <c r="H19">
-        <v>0.02678279736801414</v>
+        <v>0.02681564009517956</v>
       </c>
       <c r="I19">
-        <v>0.002572785365697605</v>
+        <v>0.002990306685282107</v>
       </c>
       <c r="J19">
-        <v>0.1989968211010336</v>
+        <v>0.2282325538352907</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.09221892347427296</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.03231115745047486</v>
       </c>
       <c r="N19">
-        <v>0.2835813060778065</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2882051835279356</v>
       </c>
       <c r="Q19">
-        <v>0.8270869949876669</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.7831109963738356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.940162148301454</v>
+        <v>4.940872677071866</v>
       </c>
       <c r="C20">
-        <v>0.80570483257614</v>
+        <v>0.8484049063246459</v>
       </c>
       <c r="D20">
-        <v>0.1051942658033624</v>
+        <v>0.111063087068743</v>
       </c>
       <c r="E20">
-        <v>0.07833813783514998</v>
+        <v>0.07347079737786544</v>
       </c>
       <c r="F20">
-        <v>0.4271806933879745</v>
+        <v>0.39703200915271</v>
       </c>
       <c r="G20">
-        <v>0.2908454269755012</v>
+        <v>0.2618359505181758</v>
       </c>
       <c r="H20">
-        <v>0.001763749466886289</v>
+        <v>0.001762555072185368</v>
       </c>
       <c r="I20">
-        <v>0.003279742702761546</v>
+        <v>0.00365432583259917</v>
       </c>
       <c r="J20">
-        <v>0.235212705020416</v>
+        <v>0.2485825964243844</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.09984358392629034</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.04181908011954683</v>
       </c>
       <c r="N20">
-        <v>0.4824243375394985</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.4909967849570762</v>
       </c>
       <c r="Q20">
-        <v>1.05929268253378</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.9687955538747843</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.554814832490763</v>
+        <v>5.552460852388435</v>
       </c>
       <c r="C21">
-        <v>0.8642164474140372</v>
+        <v>0.9176098292103632</v>
       </c>
       <c r="D21">
-        <v>0.1158606139425729</v>
+        <v>0.126817462217133</v>
       </c>
       <c r="E21">
-        <v>0.08373448535573047</v>
+        <v>0.07775117780225749</v>
       </c>
       <c r="F21">
-        <v>0.4676542738448859</v>
+        <v>0.4126461142885489</v>
       </c>
       <c r="G21">
-        <v>0.3180435190583069</v>
+        <v>0.3393331207908119</v>
       </c>
       <c r="H21">
-        <v>0.003296130513161355</v>
+        <v>0.003105184360844337</v>
       </c>
       <c r="I21">
-        <v>0.005028182250168989</v>
+        <v>0.005151208725087564</v>
       </c>
       <c r="J21">
-        <v>0.2421696300472576</v>
+        <v>0.1884040196507115</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.0927629959422589</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.04073300499854149</v>
       </c>
       <c r="N21">
-        <v>0.557167283645299</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.5664043327673198</v>
       </c>
       <c r="Q21">
-        <v>1.131889853495579</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.9678832790084897</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.956668756125111</v>
+        <v>5.95203790795324</v>
       </c>
       <c r="C22">
-        <v>0.9047571957945024</v>
+        <v>0.9642989900635826</v>
       </c>
       <c r="D22">
-        <v>0.123186305280683</v>
+        <v>0.1377682859752554</v>
       </c>
       <c r="E22">
-        <v>0.08601567031910484</v>
+        <v>0.07946088677641328</v>
       </c>
       <c r="F22">
-        <v>0.4930796562655999</v>
+        <v>0.4207760726410683</v>
       </c>
       <c r="G22">
-        <v>0.3347824270070419</v>
+        <v>0.3967548941621857</v>
       </c>
       <c r="H22">
-        <v>0.004574012373148639</v>
+        <v>0.004210404661529998</v>
       </c>
       <c r="I22">
-        <v>0.006167402865460581</v>
+        <v>0.00598973201077424</v>
       </c>
       <c r="J22">
-        <v>0.2462361152477541</v>
+        <v>0.1556775399166881</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.08826855113316601</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.0400224210749851</v>
       </c>
       <c r="N22">
-        <v>0.5957054220543654</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.6051318871360536</v>
       </c>
       <c r="Q22">
-        <v>1.176125258191746</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.9613120127411605</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.742252055146253</v>
+        <v>5.73894188714047</v>
       </c>
       <c r="C23">
-        <v>0.8793765331409986</v>
+        <v>0.9361408673282483</v>
       </c>
       <c r="D23">
-        <v>0.1189598180325078</v>
+        <v>0.1311681701068039</v>
       </c>
       <c r="E23">
-        <v>0.08502202560478445</v>
+        <v>0.07875143060851286</v>
       </c>
       <c r="F23">
-        <v>0.4812160328333945</v>
+        <v>0.4200244498413923</v>
       </c>
       <c r="G23">
-        <v>0.3274901261498542</v>
+        <v>0.3607997259471318</v>
       </c>
       <c r="H23">
-        <v>0.003873869096451377</v>
+        <v>0.003612395445569461</v>
       </c>
       <c r="I23">
-        <v>0.005255633856585007</v>
+        <v>0.005188797390468736</v>
       </c>
       <c r="J23">
-        <v>0.2449149948388083</v>
+        <v>0.1778971543074661</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.09106609003458832</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.04102507226896712</v>
       </c>
       <c r="N23">
-        <v>0.5746223479474537</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.5840500130645978</v>
       </c>
       <c r="Q23">
-        <v>1.157774451400883</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.9754680767635477</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.930606445301407</v>
+        <v>4.931317883039242</v>
       </c>
       <c r="C24">
-        <v>0.7897906625430835</v>
+        <v>0.8330911828912235</v>
       </c>
       <c r="D24">
-        <v>0.1035078222091386</v>
+        <v>0.1094197705607769</v>
       </c>
       <c r="E24">
-        <v>0.08087641588531547</v>
+        <v>0.07573317994160256</v>
       </c>
       <c r="F24">
-        <v>0.4350029606304489</v>
+        <v>0.4039884351295058</v>
       </c>
       <c r="G24">
-        <v>0.2985205900002015</v>
+        <v>0.2680890046365363</v>
       </c>
       <c r="H24">
-        <v>0.001709445855381686</v>
+        <v>0.001708227987152755</v>
       </c>
       <c r="I24">
-        <v>0.002826607088415756</v>
+        <v>0.003100901720888061</v>
       </c>
       <c r="J24">
-        <v>0.2393010062132319</v>
+        <v>0.2526379936034857</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1012869802398555</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.04328945953704988</v>
       </c>
       <c r="N24">
-        <v>0.4958743192708681</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.5047830644432736</v>
       </c>
       <c r="Q24">
-        <v>1.084118339263284</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.9905611125711147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.055512565489551</v>
+        <v>4.058682982544781</v>
       </c>
       <c r="C25">
-        <v>0.6938501078678314</v>
+        <v>0.7165932441741347</v>
       </c>
       <c r="D25">
-        <v>0.08689492700325729</v>
+        <v>0.09066143291081374</v>
       </c>
       <c r="E25">
-        <v>0.07635735765588514</v>
+        <v>0.0722977841241299</v>
       </c>
       <c r="F25">
-        <v>0.3882937101000081</v>
+        <v>0.3664030970567893</v>
       </c>
       <c r="G25">
-        <v>0.2700377681876631</v>
+        <v>0.2393804637365946</v>
       </c>
       <c r="H25">
-        <v>0.0003202153347708903</v>
+        <v>0.0003852999477578223</v>
       </c>
       <c r="I25">
-        <v>0.001351534126933451</v>
+        <v>0.001692399610456086</v>
       </c>
       <c r="J25">
-        <v>0.2349009412936809</v>
+        <v>0.2575001553011802</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1111143310878724</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.04462891952028869</v>
       </c>
       <c r="N25">
-        <v>0.4113780313205524</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.4188065090216924</v>
       </c>
       <c r="Q25">
-        <v>1.013967892020858</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.9461827922657733</v>
       </c>
     </row>
   </sheetData>
